--- a/OzdilekteyimComManuelTesting/ozdilekteyimqaTestCases.xls.xlsx
+++ b/OzdilekteyimComManuelTesting/ozdilekteyimqaTestCases.xls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\QA-Fondation-Level-Bootcamp-Project\OzdilekteyimComManuelTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31AACE-DC9B-49DF-8BD0-808B3072C640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B13EB8-7F85-4CAD-9EF4-8AEF0A879E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="192">
   <si>
     <t>Steps</t>
   </si>
@@ -790,18 +790,35 @@
   </si>
   <si>
     <t>Geçersiz veri girişi sonrası ""Giriş Yap"" butonu aktivitesi kontrolü</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAİLED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,6 +841,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -934,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -942,21 +975,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F4" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,9 +1285,10 @@
     <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="5" max="5" width="28.44140625" customWidth="1"/>
     <col min="6" max="6" width="63" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>86</v>
       </c>
@@ -1259,7 +1296,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>88</v>
       </c>
@@ -1267,7 +1304,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>90</v>
       </c>
@@ -1275,13 +1312,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>93</v>
       </c>
@@ -1297,11 +1334,14 @@
       <c r="E6" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>98</v>
       </c>
@@ -1317,121 +1357,157 @@
       <c r="E7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>103</v>
       </c>
@@ -1447,111 +1523,144 @@
       <c r="E19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>105</v>
       </c>
@@ -1567,61 +1676,79 @@
       <c r="E30" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>107</v>
       </c>
@@ -1637,71 +1764,92 @@
       <c r="E36" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>109</v>
       </c>
@@ -1717,71 +1865,92 @@
       <c r="E43" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>111</v>
       </c>
@@ -1797,41 +1966,53 @@
       <c r="E50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>114</v>
       </c>
@@ -1847,41 +2028,53 @@
       <c r="E54" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="7"/>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>116</v>
       </c>
@@ -1897,91 +2090,118 @@
       <c r="E58" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="7"/>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>118</v>
       </c>
@@ -1997,41 +2217,53 @@
       <c r="E67" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="7"/>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="7"/>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>120</v>
       </c>
@@ -2047,51 +2279,66 @@
       <c r="E71" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F71" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="7"/>
-      <c r="F72" s="13" t="s">
+      <c r="F72" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="7"/>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="7"/>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>122</v>
       </c>
@@ -2107,121 +2354,157 @@
       <c r="E76" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F76" s="13" t="s">
+      <c r="F76" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="7"/>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="7"/>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="7"/>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="7"/>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="13" t="s">
+      <c r="F84" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="13" t="s">
+      <c r="F85" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="7"/>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="7"/>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>124</v>
       </c>
@@ -2237,41 +2520,53 @@
       <c r="E88" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="7"/>
-      <c r="F89" s="13" t="s">
+      <c r="F89" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="7"/>
-      <c r="F90" s="13" t="s">
+      <c r="F90" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="13" t="s">
+      <c r="F91" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>126</v>
       </c>
@@ -2287,111 +2582,144 @@
       <c r="E92" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="7"/>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="7"/>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="7"/>
-      <c r="F95" s="13" t="s">
+      <c r="F95" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="7"/>
-      <c r="F96" s="13" t="s">
+      <c r="F96" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="7"/>
-      <c r="F97" s="13" t="s">
+      <c r="F97" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="7"/>
-      <c r="F98" s="13" t="s">
+      <c r="F98" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="7"/>
-      <c r="F99" s="13" t="s">
+      <c r="F99" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="7"/>
-      <c r="F101" s="13" t="s">
+      <c r="F101" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G101" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="7"/>
-      <c r="F102" s="13" t="s">
+      <c r="F102" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>128</v>
       </c>
@@ -2407,41 +2735,53 @@
       <c r="E103" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F103" s="13" t="s">
+      <c r="F103" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="7"/>
-      <c r="F104" s="13" t="s">
+      <c r="F104" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G104" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="13" t="s">
+      <c r="F105" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G106" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>130</v>
       </c>
@@ -2457,41 +2797,53 @@
       <c r="E107" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="F107" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
-      <c r="F108" s="13" t="s">
+      <c r="F108" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G108" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
-      <c r="F109" s="13" t="s">
+      <c r="F109" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G109" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
-      <c r="F110" s="13" t="s">
+      <c r="F110" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G110" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>132</v>
       </c>
@@ -2507,41 +2859,53 @@
       <c r="E111" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F111" s="13" t="s">
+      <c r="F111" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G111" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
-      <c r="F112" s="13" t="s">
+      <c r="F112" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G112" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G113" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>134</v>
       </c>
@@ -2557,41 +2921,53 @@
       <c r="E115" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F115" s="13" t="s">
+      <c r="F115" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G115" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
-      <c r="F117" s="13" t="s">
+      <c r="F117" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
-      <c r="F118" s="13" t="s">
+      <c r="F118" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G118" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>136</v>
       </c>
@@ -2607,41 +2983,53 @@
       <c r="E119" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F119" s="13" t="s">
+      <c r="F119" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G119" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G120" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="13" t="s">
+      <c r="F121" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G121" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="7"/>
-      <c r="F122" s="13" t="s">
+      <c r="F122" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G122" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>138</v>
       </c>
@@ -2657,41 +3045,53 @@
       <c r="E123" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="13" t="s">
+      <c r="F123" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G123" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="13" t="s">
+      <c r="F124" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G124" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="7"/>
-      <c r="F125" s="13" t="s">
+      <c r="F125" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G125" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="13" t="s">
+      <c r="F126" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G126" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>140</v>
       </c>
@@ -2707,61 +3107,79 @@
       <c r="E127" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F127" s="13" t="s">
+      <c r="F127" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G127" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="7"/>
-      <c r="F128" s="13" t="s">
+      <c r="F128" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G128" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
-      <c r="F129" s="13" t="s">
+      <c r="F129" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G129" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="7"/>
-      <c r="F130" s="13" t="s">
+      <c r="F130" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G130" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="13" t="s">
+      <c r="F131" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G131" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
-      <c r="F132" s="13" t="s">
+      <c r="F132" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G132" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>142</v>
       </c>
@@ -2777,81 +3195,105 @@
       <c r="E133" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F133" s="13" t="s">
+      <c r="F133" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="7"/>
-      <c r="F134" s="13" t="s">
+      <c r="F134" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G134" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="7"/>
-      <c r="F135" s="13" t="s">
+      <c r="F135" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G135" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
-      <c r="F136" s="13" t="s">
+      <c r="F136" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G136" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
-      <c r="F137" s="13" t="s">
+      <c r="F137" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G137" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="13" t="s">
+      <c r="F138" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G138" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="7"/>
-      <c r="F139" s="13" t="s">
+      <c r="F139" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G139" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="7"/>
-      <c r="F140" s="13" t="s">
+      <c r="F140" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G140" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>145</v>
       </c>
@@ -2867,91 +3309,118 @@
       <c r="E141" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F141" s="13" t="s">
+      <c r="F141" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G141" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="7"/>
-      <c r="F142" s="13" t="s">
+      <c r="F142" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G142" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="7"/>
-      <c r="F143" s="13" t="s">
+      <c r="F143" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G143" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="7"/>
-      <c r="F144" s="13" t="s">
+      <c r="F144" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G144" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
-      <c r="F145" s="13" t="s">
+      <c r="F145" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G145" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
-      <c r="F146" s="13" t="s">
+      <c r="F146" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G146" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
-      <c r="F147" s="13" t="s">
+      <c r="F147" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G147" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
-      <c r="F148" s="13" t="s">
+      <c r="F148" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G148" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="7"/>
-      <c r="F149" s="13" t="s">
+      <c r="F149" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G149" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>147</v>
       </c>
@@ -2967,111 +3436,144 @@
       <c r="E150" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F150" s="13" t="s">
+      <c r="F150" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G150" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
-      <c r="F151" s="13" t="s">
+      <c r="F151" s="12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G151" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="7"/>
-      <c r="F152" s="13" t="s">
+      <c r="F152" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G152" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
-      <c r="F153" s="13" t="s">
+      <c r="F153" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G153" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
-      <c r="F154" s="13" t="s">
+      <c r="F154" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G154" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
-      <c r="F155" s="13" t="s">
+      <c r="F155" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G155" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
-      <c r="F156" s="13" t="s">
+      <c r="F156" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G156" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="7"/>
-      <c r="F157" s="13" t="s">
+      <c r="F157" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G157" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="7"/>
-      <c r="F158" s="13" t="s">
+      <c r="F158" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G158" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="7"/>
-      <c r="F159" s="13" t="s">
+      <c r="F159" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G159" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
-      <c r="F160" s="13" t="s">
+      <c r="F160" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G160" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>149</v>
       </c>
@@ -3087,61 +3589,79 @@
       <c r="E161" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F161" s="13" t="s">
+      <c r="F161" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G161" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
-      <c r="F162" s="13" t="s">
+      <c r="F162" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G162" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
-      <c r="F163" s="13" t="s">
+      <c r="F163" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G163" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="7"/>
-      <c r="F164" s="13" t="s">
+      <c r="F164" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G164" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="7"/>
-      <c r="F165" s="13" t="s">
+      <c r="F165" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G165" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="7"/>
-      <c r="F166" s="13" t="s">
+      <c r="F166" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G166" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>153</v>
       </c>
@@ -3157,61 +3677,79 @@
       <c r="E167" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F167" s="13" t="s">
+      <c r="F167" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G167" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="7"/>
-      <c r="F168" s="13" t="s">
+      <c r="F168" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G168" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="7"/>
-      <c r="F169" s="13" t="s">
+      <c r="F169" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G169" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="7"/>
-      <c r="F170" s="13" t="s">
+      <c r="F170" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G170" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="7"/>
-      <c r="F171" s="13" t="s">
+      <c r="F171" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G171" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="7"/>
-      <c r="F172" s="13" t="s">
+      <c r="F172" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G172" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>155</v>
       </c>
@@ -3227,61 +3765,79 @@
       <c r="E173" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F173" s="13" t="s">
+      <c r="F173" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G173" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="7"/>
-      <c r="F174" s="13" t="s">
+      <c r="F174" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G174" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="7"/>
-      <c r="F175" s="13" t="s">
+      <c r="F175" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G175" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="7"/>
-      <c r="F176" s="13" t="s">
+      <c r="F176" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G176" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="7"/>
-      <c r="F177" s="13" t="s">
+      <c r="F177" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G177" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="7"/>
-      <c r="F178" s="13" t="s">
+      <c r="F178" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G178" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>157</v>
       </c>
@@ -3297,41 +3853,53 @@
       <c r="E179" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F179" s="13" t="s">
+      <c r="F179" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G179" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="7"/>
-      <c r="F180" s="13" t="s">
+      <c r="F180" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G180" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="7"/>
-      <c r="F181" s="13" t="s">
+      <c r="F181" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G181" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="7"/>
-      <c r="F182" s="13" t="s">
+      <c r="F182" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G182" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>159</v>
       </c>
@@ -3347,41 +3915,53 @@
       <c r="E183" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F183" s="13" t="s">
+      <c r="F183" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G183" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="7"/>
-      <c r="F184" s="13" t="s">
+      <c r="F184" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G184" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="7"/>
-      <c r="F185" s="13" t="s">
+      <c r="F185" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G185" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="7"/>
-      <c r="F186" s="13" t="s">
+      <c r="F186" s="12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G186" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>161</v>
       </c>
@@ -3397,41 +3977,53 @@
       <c r="E187" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F187" s="13" t="s">
+      <c r="F187" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G187" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="7"/>
-      <c r="F188" s="13" t="s">
+      <c r="F188" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G188" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="7"/>
-      <c r="F189" s="13" t="s">
+      <c r="F189" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G189" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="7"/>
-      <c r="F190" s="13" t="s">
+      <c r="F190" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G190" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>163</v>
       </c>
@@ -3447,41 +4039,53 @@
       <c r="E191" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F191" s="13" t="s">
+      <c r="F191" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G191" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="7"/>
-      <c r="F192" s="13" t="s">
+      <c r="F192" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G192" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="7"/>
-      <c r="F193" s="13" t="s">
+      <c r="F193" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G193" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="7"/>
-      <c r="F194" s="13" t="s">
+      <c r="F194" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G194" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>165</v>
       </c>
@@ -3497,51 +4101,66 @@
       <c r="E195" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F195" s="13" t="s">
+      <c r="F195" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G195" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="7"/>
-      <c r="F196" s="13" t="s">
+      <c r="F196" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G196" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="7"/>
-      <c r="F197" s="13" t="s">
+      <c r="F197" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G197" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="7"/>
-      <c r="F198" s="13" t="s">
+      <c r="F198" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G198" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="7"/>
-      <c r="F199" s="13" t="s">
+      <c r="F199" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G199" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>167</v>
       </c>
@@ -3557,41 +4176,53 @@
       <c r="E200" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F200" s="13" t="s">
+      <c r="F200" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G200" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="7"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="7"/>
-      <c r="F201" s="13" t="s">
+      <c r="F201" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G201" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="7"/>
-      <c r="F202" s="13" t="s">
+      <c r="F202" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G202" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="7"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="7"/>
-      <c r="F203" s="13" t="s">
+      <c r="F203" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G203" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>168</v>
       </c>
@@ -3607,51 +4238,66 @@
       <c r="E204" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F204" s="13" t="s">
+      <c r="F204" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G204" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="7"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="7"/>
-      <c r="F205" s="13" t="s">
+      <c r="F205" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G205" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="7"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="7"/>
-      <c r="F206" s="13" t="s">
+      <c r="F206" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G206" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="7"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="E207" s="7"/>
-      <c r="F207" s="13" t="s">
+      <c r="F207" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G207" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="7"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="7"/>
-      <c r="F208" s="13" t="s">
+      <c r="F208" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G208" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>169</v>
       </c>
@@ -3667,41 +4313,53 @@
       <c r="E209" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F209" s="13" t="s">
+      <c r="F209" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G209" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="7"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="E210" s="7"/>
-      <c r="F210" s="13" t="s">
+      <c r="F210" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G210" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="7"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="E211" s="7"/>
-      <c r="F211" s="13" t="s">
+      <c r="F211" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G211" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="7"/>
-      <c r="F212" s="13" t="s">
+      <c r="F212" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G212" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>171</v>
       </c>
@@ -3717,41 +4375,53 @@
       <c r="E213" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F213" s="13" t="s">
+      <c r="F213" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G213" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="7"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="E214" s="7"/>
-      <c r="F214" s="13" t="s">
+      <c r="F214" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G214" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="7"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="7"/>
-      <c r="F215" s="13" t="s">
+      <c r="F215" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G215" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="7"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="7"/>
-      <c r="F216" s="13" t="s">
+      <c r="F216" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G216" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>173</v>
       </c>
@@ -3767,41 +4437,53 @@
       <c r="E217" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F217" s="13" t="s">
+      <c r="F217" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G217" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="7"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="E218" s="7"/>
-      <c r="F218" s="13" t="s">
+      <c r="F218" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G218" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="7"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="7"/>
-      <c r="F219" s="13" t="s">
+      <c r="F219" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G219" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6"/>
       <c r="B220" s="7"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="7"/>
-      <c r="F220" s="13" t="s">
+      <c r="F220" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G220" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>175</v>
       </c>
@@ -3817,41 +4499,53 @@
       <c r="E221" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F221" s="13" t="s">
+      <c r="F221" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G221" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="7"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="7"/>
-      <c r="F222" s="13" t="s">
+      <c r="F222" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G222" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="7"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="7"/>
-      <c r="F223" s="13" t="s">
+      <c r="F223" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G223" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="7"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="7"/>
-      <c r="F224" s="13" t="s">
+      <c r="F224" s="12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G224" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>177</v>
       </c>
@@ -3867,51 +4561,66 @@
       <c r="E225" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F225" s="13" t="s">
+      <c r="F225" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G225" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="E226" s="7"/>
-      <c r="F226" s="13" t="s">
+      <c r="F226" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G226" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="7"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="7"/>
-      <c r="F227" s="13" t="s">
+      <c r="F227" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G227" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="7"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="E228" s="7"/>
-      <c r="F228" s="13" t="s">
+      <c r="F228" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G228" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="E229" s="7"/>
-      <c r="F229" s="13" t="s">
+      <c r="F229" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G229" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>179</v>
       </c>
@@ -3927,41 +4636,53 @@
       <c r="E230" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F230" s="13" t="s">
+      <c r="F230" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G230" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6"/>
       <c r="B231" s="7"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="7"/>
-      <c r="F231" s="13" t="s">
+      <c r="F231" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G231" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="7"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="E232" s="7"/>
-      <c r="F232" s="13" t="s">
+      <c r="F232" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G232" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="7"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="E233" s="7"/>
-      <c r="F233" s="13" t="s">
+      <c r="F233" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G233" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>180</v>
       </c>
@@ -3977,41 +4698,53 @@
       <c r="E234" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F234" s="13" t="s">
+      <c r="F234" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G234" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="7"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="7"/>
-      <c r="F235" s="13" t="s">
+      <c r="F235" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G235" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="7"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="7"/>
-      <c r="F236" s="13" t="s">
+      <c r="F236" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G236" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="7"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="7"/>
-      <c r="F237" s="13" t="s">
+      <c r="F237" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G237" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>181</v>
       </c>
@@ -4027,41 +4760,53 @@
       <c r="E238" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F238" s="13" t="s">
+      <c r="F238" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G238" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="7"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
       <c r="E239" s="7"/>
-      <c r="F239" s="13" t="s">
+      <c r="F239" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G239" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="7"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="7"/>
-      <c r="F240" s="13" t="s">
+      <c r="F240" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G240" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="7"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="7"/>
-      <c r="F241" s="13" t="s">
+      <c r="F241" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G241" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>183</v>
       </c>
@@ -4077,41 +4822,53 @@
       <c r="E242" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F242" s="13" t="s">
+      <c r="F242" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G242" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="7"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
       <c r="E243" s="7"/>
-      <c r="F243" s="13" t="s">
+      <c r="F243" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G243" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="7"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
       <c r="E244" s="7"/>
-      <c r="F244" s="13" t="s">
+      <c r="F244" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G244" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="7"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="7"/>
-      <c r="F245" s="13" t="s">
+      <c r="F245" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G245" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>185</v>
       </c>
@@ -4127,41 +4884,53 @@
       <c r="E246" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F246" s="13" t="s">
+      <c r="F246" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G246" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="7"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="7"/>
-      <c r="F247" s="13" t="s">
+      <c r="F247" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G247" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="7"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="7"/>
-      <c r="F248" s="13" t="s">
+      <c r="F248" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G248" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="7"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="7"/>
-      <c r="F249" s="13" t="s">
+      <c r="F249" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G249" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>187</v>
       </c>
@@ -4177,58 +4946,76 @@
       <c r="E250" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F250" s="13" t="s">
+      <c r="F250" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G250" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="7"/>
-      <c r="F251" s="13" t="s">
+      <c r="F251" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G251" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
-      <c r="F252" s="13" t="s">
+      <c r="F252" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G252" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
-      <c r="F253" s="13" t="s">
+      <c r="F253" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G253" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
-      <c r="F254" s="13" t="s">
+      <c r="F254" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G254" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
-      <c r="F255" s="13" t="s">
+      <c r="F255" s="12" t="s">
         <v>84</v>
+      </c>
+      <c r="G255" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
